--- a/data/raw/raw_w5000.xlsx
+++ b/data/raw/raw_w5000.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2746"/>
+  <dimension ref="A1:B2748"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22414,6 +22414,22 @@
         <v>68559.9765625</v>
       </c>
     </row>
+    <row r="2747">
+      <c r="A2747" s="2" t="n">
+        <v>45999</v>
+      </c>
+      <c r="B2747" t="n">
+        <v>68321.0625</v>
+      </c>
+    </row>
+    <row r="2748">
+      <c r="A2748" s="2" t="n">
+        <v>46000</v>
+      </c>
+      <c r="B2748" t="n">
+        <v>68260.9296875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
